--- a/bd_nombres.xlsx
+++ b/bd_nombres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\OneDrive\Escritorio\Universidad\Ingesoft 2\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\OneDrive\Escritorio\Universidad\Ingesoft 2\Proyecto\ingesoft2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18246FE8-938F-46BF-A1A1-F90576648E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74019226-EE3C-43E7-BEEB-8F1BDBA0C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,14 +1091,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1141,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,7 +1439,7 @@
   <dimension ref="A1:A351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
